--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluei\Documents\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluei\Documents\python\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691A193-7DF8-41E8-91F9-1EC35174E230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E0A08F-78BC-4020-A87D-D4D178FEFC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="936" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ipaddress</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>192.168.0.1-192.168.0.127</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.0.128-192.168.0.255</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.0.128-192.168.0.254</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.0.128-192.168.0.253</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -419,6 +431,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
